--- a/P1/wf_Meta/Clients.xlsx
+++ b/P1/wf_Meta/Clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Client ID</x:t>
   </x:si>
@@ -52,151 +52,157 @@
     <x:t>0001</x:t>
   </x:si>
   <x:si>
-    <x:t>Judith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lynch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>marianna.abernat@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530-310-4446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1673 Francis Mine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96130</x:t>
+    <x:t>Lindsay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oaks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stephany_daugher@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>918-563-6195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3819 Camel Back Road</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74521</x:t>
   </x:si>
   <x:si>
     <x:t>Visa</x:t>
   </x:si>
   <x:si>
-    <x:t>717029232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/2017</x:t>
+    <x:t>418067826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/2020</x:t>
   </x:si>
   <x:si>
     <x:t>0002</x:t>
   </x:si>
   <x:si>
-    <x:t>Lurline</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Odriscoll</x:t>
-  </x:si>
-  <x:si>
-    <x:t>federico1992@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256-459-7305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4835 Maple Lane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35209</x:t>
+    <x:t>James</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cabrera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hazel2017@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203-990-8216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1806 Bedford Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06902</x:t>
   </x:si>
   <x:si>
     <x:t>Mastercard</x:t>
   </x:si>
   <x:si>
-    <x:t>395336302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333</x:t>
+    <x:t>249427131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/2016</x:t>
   </x:si>
   <x:si>
     <x:t>0003</x:t>
   </x:si>
   <x:si>
-    <x:t>June</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scala</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nedra.wiz6@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305-544-5217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1960 Poplar Lane</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406667386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>366</x:t>
+    <x:t>Doris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>garret1999@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>443-342-8416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4009 Calvin Street</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>948629790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02/2015</x:t>
   </x:si>
   <x:si>
     <x:t>0004</x:t>
   </x:si>
   <x:si>
-    <x:t>Michele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orlando_han7@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>920-989-5573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>543 Lynch Street</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>650967262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05/2016</x:t>
+    <x:t>Kevin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Davis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trey_kohle6@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303-470-5948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1154 Scheuvront Drive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259781022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02/2019</x:t>
   </x:si>
   <x:si>
     <x:t>0005</x:t>
   </x:si>
   <x:si>
-    <x:t>Timothy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robertson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>americo_nitzsc@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>770-831-6993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4170 Heavner Avenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143201864</x:t>
-  </x:si>
-  <x:si>
-    <x:t>538</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08/2017</x:t>
+    <x:t>Lois</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gardner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gaylord1972@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515-362-0461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3738 Hazelwood Avenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438022356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/2020</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -655,112 +661,112 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K6" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
